--- a/biology/Zoologie/Holothuria_(Selenkothuria)/Holothuria_(Selenkothuria).xlsx
+++ b/biology/Zoologie/Holothuria_(Selenkothuria)/Holothuria_(Selenkothuria).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Holothuria (Selenkothuria) est un sous-genre de concombres de mer de la famille des Holothuriidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des holothuries tropicales ou subtropicales, présentes dans les trois principaux bassins océaniques, à faible profondeur[2]. La plupart des espèces sont de taille moyenne (entre 6 et 15 cm de long[2]), hérissées de nombreuses petites papilles coniques plus ou moins prononcées, sur un épiderme peu épais. Elles portent 20 tentacules buccaux, des podia répartis de manière plus ou moins régulière en trois rangées sur le trivium[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des holothuries tropicales ou subtropicales, présentes dans les trois principaux bassins océaniques, à faible profondeur. La plupart des espèces sont de taille moyenne (entre 6 et 15 cm de long), hérissées de nombreuses petites papilles coniques plus ou moins prononcées, sur un épiderme peu épais. Elles portent 20 tentacules buccaux, des podia répartis de manière plus ou moins régulière en trois rangées sur le trivium. 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Historiquement, ce groupe fut proposé par Elisabeth Deichmann (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria[1]. 
-Selon World Register of Marine Species                               (24 octobre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Historiquement, ce groupe fut proposé par Elisabeth Deichmann (d) en tant que genre à part entière, mais les données scientifiques récentes l'ont placé au rang de sous-genre du vaste genre Holothuria. 
+Selon World Register of Marine Species                               (24 octobre 2016) :
 Holothuria (Selenkothuria) bacilla Cherbonnier, 1988 -- Madagascar et région
 Holothuria (Selenkothuria) carere Honey-Escandón, Solís-Marín &amp; Laguarda-Figueras, 2011 -- Pacifique est
 Holothuria (Selenkothuria) erinacea Semper, 1868 -- Indo-Pacifique tropical
